--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\5_Klasse\Labor1Infi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linus.pilz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C184D-EB15-4325-ABB2-7BB66D931623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D98149A-E393-4CD8-A56F-9906A78F9DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{904973F5-B02B-4666-A03D-BB66738E721E}"/>
+    <workbookView xWindow="5240" yWindow="5240" windowWidth="28800" windowHeight="15460" xr2:uid="{904973F5-B02B-4666-A03D-BB66738E721E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Tag</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Gemeinsam</t>
   </si>
   <si>
-    <t>Stunden:</t>
-  </si>
-  <si>
     <t>ProHTL + Übung</t>
   </si>
   <si>
@@ -105,6 +102,12 @@
   </si>
   <si>
     <t>Wechsel zu Unity</t>
+  </si>
+  <si>
+    <t>Github: Stundenliste hinzugefügt (branches)</t>
+  </si>
+  <si>
+    <t>Github (gitignore erstellt) Unity-Projekt</t>
   </si>
 </sst>
 </file>
@@ -179,9 +182,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -215,9 +216,6 @@
     </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -225,40 +223,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -296,6 +279,24 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="[hh]:mm"/>
@@ -443,7 +444,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD71F5EC-BCBD-4D95-9F21-060EF7779827}" name="Stundenliste" displayName="Stundenliste" ref="A1:G13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:G13" xr:uid="{730AE997-56E9-481C-8C9C-45C7D9E3EFFC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
     <sortCondition ref="B1:B5"/>
   </sortState>
   <tableColumns count="7">
@@ -475,11 +476,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8B5F2195-23C3-4CB7-A5D3-21B8075D8571}" name="Tabelle5" displayName="Tabelle5" ref="I2:J11" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8B5F2195-23C3-4CB7-A5D3-21B8075D8571}" name="Tabelle5" displayName="Tabelle5" ref="I2:J11" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="I2:J11" xr:uid="{8B5F2195-23C3-4CB7-A5D3-21B8075D8571}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5F655F81-B105-43EE-8AB9-3B34703E1464}" name="Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B0F8400B-CC18-431B-B826-95EE145FC5C8}" name="Zeit" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{5F655F81-B105-43EE-8AB9-3B34703E1464}" name="Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B0F8400B-CC18-431B-B826-95EE145FC5C8}" name="Zeit" dataDxfId="0">
       <calculatedColumnFormula>SUMIF(Stundenliste[Wer],I3,Stundenliste[Stunden])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -787,8 +788,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,7 +835,7 @@
         <v>45809</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6">
         <v>0.29166666666666669</v>
@@ -850,13 +851,13 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
         <v>5</v>
@@ -864,14 +865,14 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="str">
-        <f t="shared" ref="A3:A8" si="0">IF(ISNUMBER(B3),LEFT(TEXT(B3,"TTTT"),2)&amp;".","")</f>
+        <f t="shared" ref="A3:A5" si="0">IF(ISNUMBER(B3),LEFT(TEXT(B3,"TTTT"),2)&amp;".","")</f>
         <v>Di.</v>
       </c>
       <c r="B3" s="5">
         <v>45811</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6">
         <v>0.30902777777777779</v>
@@ -884,22 +885,22 @@
         <v>0.10416666666666663</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="12">
         <f>SUMIF(Stundenliste[Wer],I3,Stundenliste[Stunden])</f>
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="14">
+        <v>10</v>
+      </c>
+      <c r="M3" s="13">
         <f>SUM(J4,J7,J8,J11)</f>
-        <v>1.1875</v>
+        <v>1.3541666666666665</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -911,7 +912,7 @@
         <v>45818</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6">
         <v>0.30902777777777779</v>
@@ -927,16 +928,16 @@
         <v>7</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="12">
         <f>SUMIF(Stundenliste[Wer],I4,Stundenliste[Stunden])</f>
-        <v>0</v>
+        <v>0.16666666666666652</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="14">
+        <v>11</v>
+      </c>
+      <c r="M4" s="13">
         <f>SUM(J5,J8,J9,J11)</f>
         <v>1.0833333333333333</v>
       </c>
@@ -950,7 +951,7 @@
         <v>45825</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6">
         <v>0.30902777777777779</v>
@@ -966,16 +967,16 @@
         <v>7</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="12">
         <f>SUMIF(Stundenliste[Wer],I5,Stundenliste[Stunden])</f>
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="14">
+        <v>9</v>
+      </c>
+      <c r="M5" s="13">
         <f>SUM(J3,J7,J9,J11)</f>
         <v>1.1875</v>
       </c>
@@ -989,7 +990,7 @@
         <v>45832</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6">
         <v>0.30902777777777779</v>
@@ -1016,7 +1017,7 @@
         <v>45885</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6">
         <v>0.70833333333333337</v>
@@ -1032,51 +1033,79 @@
         <v>7</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="12">
         <f>SUMIF(Stundenliste[Wer],I7,Stundenliste[Stunden])</f>
         <v>0.10416666666666663</v>
       </c>
+      <c r="M7" s="19">
+        <f>SUM(F2:F13)</f>
+        <v>1.3541666666666665</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7" t="str">
+      <c r="A8" s="14" t="str">
+        <f>IF(ISNUMBER(B8),LEFT(TEXT(B8,"TTTT"),2)&amp;".","")</f>
+        <v>Fr.</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45919</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F8" s="15">
         <f>IF(E8&gt;D8,E8-D8,IF(ISNUMBER(Stundenliste[[#This Row],[Von]]),"24:00"-(D8-E8),""))</f>
-        <v/>
-      </c>
-      <c r="G8" s="4"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="12">
         <f>SUMIF(Stundenliste[Wer],I8,Stundenliste[Stunden])</f>
         <v>0</v>
       </c>
+      <c r="M8" s="20">
+        <f>TEXT(M7,"[h]")+TEXT(M7,"mm")/60</f>
+        <v>32.5</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="4" t="str">
         <f>IF(ISNUMBER(B9),LEFT(TEXT(B9,"TTTT"),2)&amp;".","")</f>
-        <v/>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="16" t="str">
+        <v>Mi.</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45924</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F9" s="7">
         <f>IF(E9&gt;D9,E9-D9,IF(ISNUMBER(Stundenliste[[#This Row],[Von]]),"24:00"-(D9-E9),""))</f>
-        <v/>
-      </c>
-      <c r="G9" s="4"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="12">
         <f>SUMIF(Stundenliste[Wer],I9,Stundenliste[Stunden])</f>
@@ -1084,32 +1113,32 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="str">
+      <c r="A10" s="14" t="str">
         <f>IF(ISNUMBER(B10),LEFT(TEXT(B10,"TTTT"),2)&amp;".","")</f>
         <v/>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="16" t="str">
+      <c r="F10" s="15" t="str">
         <f>IF(E10&gt;D10,E10-D10,IF(ISNUMBER(Stundenliste[[#This Row],[Von]]),"24:00"-(D10-E10),""))</f>
         <v/>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="16"/>
       <c r="I10" s="5"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="str">
+      <c r="A11" s="14" t="str">
         <f>IF(ISNUMBER(B11),LEFT(TEXT(B11,"TTTT"),2)&amp;".","")</f>
         <v/>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="16" t="str">
+      <c r="F11" s="15" t="str">
         <f>IF(E11&gt;D11,E11-D11,IF(ISNUMBER(Stundenliste[[#This Row],[Von]]),"24:00"-(D11-E11),""))</f>
         <v/>
       </c>
@@ -1123,64 +1152,46 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="str">
+      <c r="A12" s="14" t="str">
         <f t="shared" ref="A12:A13" si="1">IF(ISNUMBER(B12),LEFT(TEXT(B12,"TTTT"),2)&amp;".","")</f>
         <v/>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="15" t="str">
         <f>IF(E12&gt;D12,E12-D12,IF(ISNUMBER(Stundenliste[[#This Row],[Von]]),"24:00"-(D12-E12),""))</f>
         <v/>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="str">
+      <c r="A13" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="16" t="str">
+      <c r="F13" s="15" t="str">
         <f>IF(E13&gt;D13,E13-D13,IF(ISNUMBER(Stundenliste[[#This Row],[Von]]),"24:00"-(D13-E13),""))</f>
         <v/>
       </c>
       <c r="G13" s="4"/>
-      <c r="I13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="20">
-        <f>TEXT(J3,"[h]")+TEXT(J3,"m")/60</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22">
-        <f>SUM(F2:F13)</f>
-        <v>1.1875</v>
-      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="3"/>
-      <c r="I14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="20">
-        <f>TEXT(J4,"[h]")+TEXT(J4,"m")/60</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="23">
-        <f>TEXT(L13,"[h]")+TEXT(L13,"mm")/60</f>
-        <v>28.5</v>
-      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1197,6 +1208,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="d9f85066-e658-4e34-914c-f198c2427564" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001F6A9684FA57F34CA0CFF8DECC7C89F4" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b2ec2b65d3d5b16c44b9b6a36409c0c6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d9f85066-e658-4e34-914c-f198c2427564" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b8d1bb51b8c1f0753974a44edfe3f74" ns2:_="">
     <xsd:import namespace="d9f85066-e658-4e34-914c-f198c2427564"/>
@@ -1340,25 +1368,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="d9f85066-e658-4e34-914c-f198c2427564" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834A42BE-934C-42D8-9F79-C190EDC62F20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A879EED-63D4-4BD6-ABDC-8DEB19CAAEDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1374,14 +1389,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="becce21f-4543-4ee3-84d8-746b4cf7c34b"/>
+    <ds:schemaRef ds:uri="d9f85066-e658-4e34-914c-f198c2427564"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A879EED-63D4-4BD6-ABDC-8DEB19CAAEDF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834A42BE-934C-42D8-9F79-C190EDC62F20}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d9f85066-e658-4e34-914c-f198c2427564"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>